--- a/Document/7.Testing/Bug Report.xlsx
+++ b/Document/7.Testing/Bug Report.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="125">
   <si>
     <t>Blue Team</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Actual results</t>
-  </si>
-  <si>
-    <t>Pass/fail</t>
   </si>
   <si>
     <t>Status</t>
@@ -91,9 +88,6 @@
   </si>
   <si>
     <t>The browser to viewhome page of RS.</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
   <si>
     <t>Fixed
@@ -502,6 +496,13 @@
 2) Type the link: 
 3) Click on "Dịch vụ trung gian" option.
 4) Click on "Gửi" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed
+</t>
+  </si>
+  <si>
+    <t>Fixed</t>
   </si>
 </sst>
 </file>
@@ -646,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -693,9 +694,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -995,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,41 +1010,41 @@
     <col min="7" max="7" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24" t="s">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="25" t="s">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -1066,664 +1064,592 @@
       <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="9" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" s="9" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="H8" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="12" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="B9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="12" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="D9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="E9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="F9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="H9" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="215.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="B10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="215.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="C10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="E10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="14" t="s">
+      <c r="F10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="G10" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="H10" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="B11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="C11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="E11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="14" t="s">
+      <c r="B12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="C12" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="H12" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="C13" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="12" customFormat="1" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="B14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="12" customFormat="1" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="C14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="E14" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="F14" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="G14" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="H14" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="405" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="B15" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="405" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="E15" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="10" t="s">
+      <c r="G15" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="10" t="s">
+      <c r="H15" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="218.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="B16" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="E16" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="10" t="s">
+      <c r="G16" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="10" t="s">
+      <c r="H16" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="B17" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H16" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="132" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="E17" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="10" t="s">
+      <c r="G17" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="10" t="s">
+      <c r="H17" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>83</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="B18" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="H17" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="E18" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="10" t="s">
+      <c r="G18" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="12" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="10" t="s">
+      <c r="B19" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G18" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="12" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="E19" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="F19" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="G19" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="H19" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="405" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="B20" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="H19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="405" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="C20" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="G20" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="H20" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="348" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="10" t="s">
+      <c r="F21" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="348" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="10" t="s">
+      <c r="B22" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="10" t="s">
+      <c r="F22" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="132" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="G22" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="10" t="s">
+      <c r="H22" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="H22" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="C23" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="G23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>110</v>
-      </c>
       <c r="B24" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="H24" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="C25" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="H25" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="C26" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="C27" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Document/7.Testing/Bug Report.xlsx
+++ b/Document/7.Testing/Bug Report.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="128">
   <si>
     <t>Blue Team</t>
   </si>
@@ -503,6 +503,18 @@
   </si>
   <si>
     <t>Fixed</t>
+  </si>
+  <si>
+    <t>TC_R15</t>
+  </si>
+  <si>
+    <t>Register with full name contains numbers.</t>
+  </si>
+  <si>
+    <t>1) "Họ tên" textbox: 'Ha12 Lan'
+2) "E-mail" textbox: 'abcd1234@gmail.com'
+3) "Mật khẩu": '1234abcd'
+4) "Xác nhận mật khẩu": '1234abcd'</t>
   </si>
 </sst>
 </file>
@@ -993,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,7 +1386,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -1400,7 +1412,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -1426,7 +1438,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="12" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="12" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>87</v>
       </c>
@@ -1452,7 +1464,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="405" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="405" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>94</v>
       </c>
@@ -1478,7 +1490,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="348" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="348" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>98</v>
       </c>
@@ -1504,7 +1516,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>98</v>
       </c>
@@ -1530,7 +1542,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>105</v>
       </c>
@@ -1556,7 +1568,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>108</v>
       </c>
@@ -1580,7 +1592,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>112</v>
       </c>
@@ -1604,7 +1616,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>117</v>
       </c>
@@ -1628,7 +1640,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>120</v>
       </c>
@@ -1651,6 +1663,33 @@
       <c r="H27" s="7" t="s">
         <v>30</v>
       </c>
+    </row>
+    <row r="28" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I28" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Document/7.Testing/Bug Report.xlsx
+++ b/Document/7.Testing/Bug Report.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bug report for sprint 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bug report for sprint 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Bug report for sprint 3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="208">
   <si>
     <t>Blue Team</t>
   </si>
@@ -33,9 +35,6 @@
   </si>
   <si>
     <t>Release Version: v1.0</t>
-  </si>
-  <si>
-    <t>Document Name: Bug Report</t>
   </si>
   <si>
     <t>Description</t>
@@ -209,19 +208,6 @@
   </si>
   <si>
     <t>The browser switch view list of zone page and display zone information which was saved with 50-character zone name.</t>
-  </si>
-  <si>
-    <t>TC_UZ03</t>
-  </si>
-  <si>
-    <t>Update a zone with wrong length of zone name</t>
-  </si>
-  <si>
-    <t>1) "Tên khu": 'Phòng đầu ygjhdkfsvd vjhajfmfvgfdvjdfhvdf vavhsavb hfs vdhvdh svdhf sv dub cdu hcn ns u csxvn hdnvn cuhd cjnx cjsvc jdsc kxcyvh c cnuhvj hncxj yh hcjn x  hjnx  hcjnm  chjxnm cvj hhxjnchu ccoidsv gc vkfhcjvmc bc  vkc xkd ckx nvjcmnbcvjmxcvbc xm
-2) "Địa chỉ: '51/17  Quang Trung'
-3) "Tỉnh/Thành phố": 'Đà Nẵng'
-4) "Quận/Huyện": 'Hải Châu'
-5) "Phường/Xã": 'Thạch Thang'</t>
   </si>
   <si>
     <t>TC_DZ01</t>
@@ -441,21 +427,6 @@
     <t>The screen display "Diện tích phòng không được âm" message box. The browser display view list of room page with no information change.</t>
   </si>
   <si>
-    <t>TC_DR01</t>
-  </si>
-  <si>
-    <t>1) Click on button in "Xóa" columm of ID room 341543554705.
-2) Click on "OK" button in "Bạn có chắc muốn xóa mục này?" box</t>
-  </si>
-  <si>
-    <t>The screen display 
-"Đã xóa thành công" message box. The browser display view list of zone page without room which was deleted.</t>
-  </si>
-  <si>
-    <t>The browser display 
-view list of zone page without room which was deleted.</t>
-  </si>
-  <si>
     <t>TC_REPORT01</t>
   </si>
   <si>
@@ -498,13 +469,6 @@
 4) Click on "Gửi" button</t>
   </si>
   <si>
-    <t xml:space="preserve">Fixed
-</t>
-  </si>
-  <si>
-    <t>Fixed</t>
-  </si>
-  <si>
     <t>TC_R15</t>
   </si>
   <si>
@@ -515,13 +479,331 @@
 2) "E-mail" textbox: 'abcd1234@gmail.com'
 3) "Mật khẩu": '1234abcd'
 4) "Xác nhận mật khẩu": '1234abcd'</t>
+  </si>
+  <si>
+    <t>Document Name: Bug Report for Spring 1</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Date: 28/9/2018</t>
+  </si>
+  <si>
+    <t>TC_S04</t>
+  </si>
+  <si>
+    <t>Search without ward name</t>
+  </si>
+  <si>
+    <t>User must 
+accesses the website.</t>
+  </si>
+  <si>
+    <t>1) "Tỉnh/ Thành Phố": 'Đà Nẵng'
+2) "Quận/ Huyện": 'Hải Châu'
+3) "Phường/ Xã": Empty
+4) "Kiểu chỗ ở": 'Phòng trọ'
+5) "Giá từ": 'Dưới 1 triệu'</t>
+  </si>
+  <si>
+    <t>1) Choose fully information for all boxes except "Phường/ Xã"
+2) Click on "Tìm kiếm" button</t>
+  </si>
+  <si>
+    <t>Browser to view all accommodations fit with those information and zoom in Hải Châu district on the map.</t>
+  </si>
+  <si>
+    <t>Browser to view all accommodations fit with those information</t>
+  </si>
+  <si>
+    <t>TC_S05</t>
+  </si>
+  <si>
+    <t>Search without type of accomodation</t>
+  </si>
+  <si>
+    <t>1) "Tỉnh/ Thành Phố": 'Đà Nẵng'
+2) "Quận/ Huyện": 'Hải Châu'
+3) "Phường/ Xã": 'Hòa Cường Bắc'
+4) "Kiểu chỗ ở": Empty
+5) "Giá từ": 'Dưới 1 triệu'</t>
+  </si>
+  <si>
+    <t>1) Choose fully information for all boxes except "Kiểu chỗ ở"
+2) Click on "Tìm kiếm" button</t>
+  </si>
+  <si>
+    <t>Browser to view all accommodations fit with those information and zoom in Hòa Cường Bắc ward on the map.</t>
+  </si>
+  <si>
+    <t>TC_S06</t>
+  </si>
+  <si>
+    <t>Search without price of accomodation</t>
+  </si>
+  <si>
+    <t>1) "Tỉnh/ Thành Phố": 'Đà Nẵng'
+2) "Quận/ Huyện": 'Hải Châu'
+3) "Phường/ Xã": 'Hòa Cường Bắc'
+4) "Kiểu chỗ ở": 'Phòng trọ'
+5) "Giá từ": Empty</t>
+  </si>
+  <si>
+    <t>1) Choose fully information for all boxes except "Giá"
+2) Click on "Tìm kiếm" button</t>
+  </si>
+  <si>
+    <t>TC_S07</t>
+  </si>
+  <si>
+    <t>Search with name contains special characters.</t>
+  </si>
+  <si>
+    <t>Document Name: Bug Report for Spring 2</t>
+  </si>
+  <si>
+    <t>Date: 26/11/2018</t>
+  </si>
+  <si>
+    <t>TC_A02</t>
+  </si>
+  <si>
+    <t>"Đồng ý" button</t>
+  </si>
+  <si>
+    <t>TC_A01</t>
+  </si>
+  <si>
+    <t>1) "Giá": '1000000'
+2) "Ngày bắt đầu": '05/12/2018'
+3) "Ngày kết thúc": '05/3/2019'</t>
+  </si>
+  <si>
+    <t>1) Enter the infomation for that contract
+2) Click on "Đồng ý" button</t>
+  </si>
+  <si>
+    <t>Screen displays "Bạn đã cho thuê chỗ ở thành công". The status of that accommodation is set at "Đã thuê". Database save that contract information with the price  and date landlord entered</t>
+  </si>
+  <si>
+    <t>The status of that accommodation is set at "Đã thuê". Database save that contract information with the price landlord entered</t>
+  </si>
+  <si>
+    <t>TC_MR02</t>
+  </si>
+  <si>
+    <t>View detail of a report</t>
+  </si>
+  <si>
+    <t>TC_MR01</t>
+  </si>
+  <si>
+    <t>Click on button in "Chi tiết" columm</t>
+  </si>
+  <si>
+    <t>View axactly information of report</t>
+  </si>
+  <si>
+    <t>Error 404</t>
+  </si>
+  <si>
+    <t>TC_MR03</t>
+  </si>
+  <si>
+    <t>Delete a report</t>
+  </si>
+  <si>
+    <t>Click on button in "Xóa" columm</t>
+  </si>
+  <si>
+    <t>The screen displays "Đã xóa báo cáo" and the browser to view list of reports without the report was deleted</t>
+  </si>
+  <si>
+    <t>The browser to view list of reports without no change</t>
+  </si>
+  <si>
+    <t>TC_MU03</t>
+  </si>
+  <si>
+    <t>Delete a user</t>
+  </si>
+  <si>
+    <t>TC_MU01</t>
+  </si>
+  <si>
+    <t>The screen displays "Đã xóa tài khoản" and the browser to view list of users without the user was deleted</t>
+  </si>
+  <si>
+    <t>The browser to view list of users without no change</t>
+  </si>
+  <si>
+    <t>TC_MAFA02</t>
+  </si>
+  <si>
+    <t>View detail of a accommodations</t>
+  </si>
+  <si>
+    <t>TC_MAFA01</t>
+  </si>
+  <si>
+    <t>View axactly information of zone</t>
+  </si>
+  <si>
+    <t>TC_MAFA03</t>
+  </si>
+  <si>
+    <t>Delete a zone</t>
+  </si>
+  <si>
+    <t>The screen displays "Đã xóa báo cáo" and the browser to view list of zones without the zone was deleted</t>
+  </si>
+  <si>
+    <t>The browser to view list of zones without no change</t>
+  </si>
+  <si>
+    <t>TC_CAA01</t>
+  </si>
+  <si>
+    <t>Creat an account
+with valid value</t>
+  </si>
+  <si>
+    <t>TC_LFA01</t>
+  </si>
+  <si>
+    <t>1) "E-mail đăng nhập": 'huynhvuhalan@gmail.com
+2) "Mật khẩu": '1234abcd'
+3) "Xác nhận mật khẩu": '1234abcd'</t>
+  </si>
+  <si>
+    <t>1) Click on "Tạo tài khoản quản trị viên"
+2) Enter the information for boxes
+3) Click on "Tạo tài khoản".</t>
+  </si>
+  <si>
+    <t>The screen displays "Đã tạo tài khoản admin thành công". That account is saved in database and can use to log in the admin role of the system.</t>
+  </si>
+  <si>
+    <t>TC_CAA02</t>
+  </si>
+  <si>
+    <t>Creat an account
+with invalid e-mail</t>
+  </si>
+  <si>
+    <t>1) "E-mail đăng nhập": 'huynhvuhalangmail.com
+2) "Mật khẩu": '1234abcd'
+3) "Xác nhận mật khẩu": '1234abcd'</t>
+  </si>
+  <si>
+    <t>The screen displays "E-mail phải chưa kí tự '@'"</t>
+  </si>
+  <si>
+    <t>TC_CAA03</t>
+  </si>
+  <si>
+    <t>Creat an account
+with e-mail contains special characters</t>
+  </si>
+  <si>
+    <t>1) "E-mail đăng nhập": 'h^uynhvuhalan@gmail.com
+2) "Mật khẩu": '1234abcd'
+3) "Xác nhận mật khẩu": '1234abcd'</t>
+  </si>
+  <si>
+    <t>The screen displays "E-mail không chứa kí tự '^'"</t>
+  </si>
+  <si>
+    <t>TC_CAA04</t>
+  </si>
+  <si>
+    <t>Creat an account
+without e-mail</t>
+  </si>
+  <si>
+    <t>1) "E-mail đăng nhập": Empty
+2) "Mật khẩu": '1234abcd'
+3) "Xác nhận mật khẩu": '1234abcd'</t>
+  </si>
+  <si>
+    <t>The screen displays "Chưa nhập e-mail"</t>
+  </si>
+  <si>
+    <t>TC_CAA05</t>
+  </si>
+  <si>
+    <t>Creat an account
+with invalid password</t>
+  </si>
+  <si>
+    <t>1) "E-mail đăng nhập": Empty
+2) "Mật khẩu": '1234'
+3) "Xác nhận mật khẩu": '1234'</t>
+  </si>
+  <si>
+    <t>The screen displays "Mật khẩu phải có nhiều hơn 5 kí tự và ít hơn 20 kí tự"</t>
+  </si>
+  <si>
+    <t>TC_CAA06</t>
+  </si>
+  <si>
+    <t>Creat an account
+with e-mail was exist in system</t>
+  </si>
+  <si>
+    <t>1) "E-mail đăng nhập": 'huynhvuhalan.97@gmail.com
+2) "Mật khẩu": '1234abcd'
+3) "Xác nhận mật khẩu": '1234abcd'</t>
+  </si>
+  <si>
+    <t>The screen displays "E-mail đã tồn tại"</t>
+  </si>
+  <si>
+    <t>TC_CAA07</t>
+  </si>
+  <si>
+    <t>Creat an account
+without password</t>
+  </si>
+  <si>
+    <t>1) "E-mail đăng nhập": 'huynhvuhalan@gmail.com
+2) "Mật khẩu": Empty
+3) "Xác nhận mật khẩu": '1234abcd'</t>
+  </si>
+  <si>
+    <t>TC_CAA08</t>
+  </si>
+  <si>
+    <t>Creat an account
+without authentication password</t>
+  </si>
+  <si>
+    <t>1) "E-mail đăng nhập": 'huynhvuhalan@gmail.com
+2) "Mật khẩu": '1234abcd'
+3) "Xác nhận mật khẩu": Empty</t>
+  </si>
+  <si>
+    <t>TC_CAA09</t>
+  </si>
+  <si>
+    <t>Creat an account
+with authentication password different from password</t>
+  </si>
+  <si>
+    <t>1) "E-mail đăng nhập": 'huynhvuhalan@gmail.com
+2) "Mật khẩu": '1234abcd'
+3) "Xác nhận mật khẩu": '1234abcc'</t>
+  </si>
+  <si>
+    <t>The screen displays "Mật khẩu không khớp"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,6 +869,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -608,7 +897,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -655,11 +944,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -722,8 +1104,52 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1005,10 +1431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,7 +1448,7 @@
     <col min="7" max="7" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1034,669 +1460,1364 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="B2" s="23" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+    </row>
+    <row r="5" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A4:XFD4"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21"/>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="26" t="s">
+        <v>140</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="D9" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="4" t="s">
+    </row>
+    <row r="10" spans="1:8" s="12" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="215.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="9" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="12" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="215.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="H12" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="C13" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="F13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="210" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="H13" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="12" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B14" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="6" t="s">
+      <c r="C14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="E14" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="12" customFormat="1" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="F14" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="G14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="H14" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="246.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="B15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="C15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="E15" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="405" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="G15" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="H15" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="348" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="10" t="s">
+      <c r="B16" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="10" t="s">
+      <c r="C16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="E16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H15" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="218.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="G16" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="H16" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="10" t="s">
+      <c r="B17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="10" t="s">
+      <c r="C17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="E17" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="132" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="G17" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="H17" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="10" t="s">
+      <c r="B18" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="10" t="s">
+      <c r="C18" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="E18" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H17" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="G18" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="12" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B19" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G18" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="12" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="E19" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="F19" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="G19" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="H19" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="B20" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="C20" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G20" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="405" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="H20" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="348" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B21" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="10" t="s">
+      <c r="C21" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G21" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="H20" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="348" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="H21" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C22" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" s="10" t="s">
+      <c r="G22" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="H22" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="H21" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="132" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F22" s="10" t="s">
+      <c r="C23" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>107</v>
-      </c>
       <c r="G23" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="I28" s="6"/>
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="39" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
